--- a/nr-update-menu/ig/StructureDefinition-cds-ihe-careteam.xlsx
+++ b/nr-update-menu/ig/StructureDefinition-cds-ihe-careteam.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-25T12:46:47+00:00</t>
+    <t>2024-06-25T12:47:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
